--- a/nmadb/479629.xlsx
+++ b/nmadb/479629.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7155"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$A$69</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -274,9 +274,6 @@
     <t>sd1</t>
   </si>
   <si>
-    <t>n 1</t>
-  </si>
-  <si>
     <t>t2</t>
   </si>
   <si>
@@ -284,9 +281,6 @@
   </si>
   <si>
     <t>sd2</t>
-  </si>
-  <si>
-    <t>n 2</t>
   </si>
   <si>
     <t>Jan 2008</t>
@@ -377,15 +371,21 @@
       <t>: pain intensity (0-100 scale; WMD between treatment and placebo groups)</t>
     </r>
   </si>
+  <si>
+    <t>n1</t>
+  </si>
+  <si>
+    <t>n2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1000,132 +1000,132 @@
     </xf>
   </cellXfs>
   <cellStyles count="128">
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="127" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -1162,7 +1162,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1236,7 +1236,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1271,7 +1270,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1447,16 +1445,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="52"/>
+    <col min="1" max="1" width="15.42578125" style="52" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" style="53" customWidth="1"/>
     <col min="3" max="4" width="8.85546875" style="52"/>
     <col min="5" max="6" width="8.85546875" style="45"/>
@@ -1466,7 +1464,7 @@
     <col min="12" max="16384" width="8.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1">
       <c r="A1" s="24" t="s">
         <v>22</v>
       </c>
@@ -1486,28 +1484,28 @@
         <v>78</v>
       </c>
       <c r="G1" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="59" t="s">
+      <c r="I1" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="J1" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="58" t="s">
-        <v>82</v>
-      </c>
       <c r="K1" s="60" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="M1" s="79" t="s">
         <v>24</v>
       </c>
       <c r="N1" s="36" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="37">
         <v>2007</v>
       </c>
@@ -1551,10 +1549,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="37"/>
       <c r="B3" s="38"/>
-      <c r="C3" s="61"/>
+      <c r="C3" s="61">
+        <v>1</v>
+      </c>
       <c r="D3" s="61">
         <v>2</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="37">
         <v>2004</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="42">
         <v>2003</v>
       </c>
@@ -1671,10 +1671,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="42"/>
       <c r="B6" s="38"/>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>3</v>
+      </c>
       <c r="D6" s="61">
         <v>2</v>
       </c>
@@ -1707,7 +1709,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="42">
         <v>2003</v>
       </c>
@@ -1749,10 +1751,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="42"/>
       <c r="B8" s="38"/>
-      <c r="C8" s="72"/>
+      <c r="C8" s="72">
+        <v>4</v>
+      </c>
       <c r="D8" s="61">
         <v>2</v>
       </c>
@@ -1785,7 +1789,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15.75" thickBot="1">
       <c r="A9" s="42">
         <v>2004</v>
       </c>
@@ -1827,10 +1831,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="37"/>
       <c r="B10" s="38"/>
-      <c r="C10" s="72"/>
+      <c r="C10" s="72">
+        <v>5</v>
+      </c>
       <c r="D10" s="61">
         <v>2</v>
       </c>
@@ -1856,7 +1862,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="37">
         <v>2002</v>
       </c>
@@ -1892,10 +1898,12 @@
       </c>
       <c r="O11" s="47"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="37"/>
       <c r="B12" s="38"/>
-      <c r="C12" s="72"/>
+      <c r="C12" s="72">
+        <v>6</v>
+      </c>
       <c r="D12" s="61">
         <v>2</v>
       </c>
@@ -1922,7 +1930,7 @@
       </c>
       <c r="O12" s="47"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="37">
         <v>2004</v>
       </c>
@@ -1958,10 +1966,12 @@
       </c>
       <c r="O13" s="47"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="37"/>
       <c r="B14" s="38"/>
-      <c r="C14" s="61"/>
+      <c r="C14" s="61">
+        <v>7</v>
+      </c>
       <c r="D14" s="61">
         <v>2</v>
       </c>
@@ -1988,10 +1998,12 @@
       </c>
       <c r="O14" s="47"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="37"/>
       <c r="B15" s="38"/>
-      <c r="C15" s="61"/>
+      <c r="C15" s="61">
+        <v>7</v>
+      </c>
       <c r="D15" s="61">
         <v>2</v>
       </c>
@@ -2018,10 +2030,12 @@
       </c>
       <c r="O15" s="47"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="37"/>
       <c r="B16" s="38"/>
-      <c r="C16" s="61"/>
+      <c r="C16" s="61">
+        <v>7</v>
+      </c>
       <c r="D16" s="61">
         <v>2</v>
       </c>
@@ -2048,10 +2062,12 @@
       </c>
       <c r="O16" s="47"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17" s="37"/>
       <c r="B17" s="38"/>
-      <c r="C17" s="61"/>
+      <c r="C17" s="61">
+        <v>7</v>
+      </c>
       <c r="D17" s="61">
         <v>2</v>
       </c>
@@ -2078,7 +2094,7 @@
       </c>
       <c r="O17" s="47"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18" s="37">
         <v>1999</v>
       </c>
@@ -2114,10 +2130,12 @@
       </c>
       <c r="O18" s="47"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15">
       <c r="A19" s="37"/>
       <c r="B19" s="38"/>
-      <c r="C19" s="61"/>
+      <c r="C19" s="61">
+        <v>8</v>
+      </c>
       <c r="D19" s="61">
         <v>2</v>
       </c>
@@ -2143,10 +2161,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15">
       <c r="A20" s="37"/>
       <c r="B20" s="38"/>
-      <c r="C20" s="61"/>
+      <c r="C20" s="61">
+        <v>8</v>
+      </c>
       <c r="D20" s="61">
         <v>2</v>
       </c>
@@ -2172,10 +2192,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15">
       <c r="A21" s="37"/>
       <c r="B21" s="38"/>
-      <c r="C21" s="61"/>
+      <c r="C21" s="61">
+        <v>8</v>
+      </c>
       <c r="D21" s="61">
         <v>2</v>
       </c>
@@ -2201,7 +2223,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="A22" s="37">
         <v>2004</v>
       </c>
@@ -2236,10 +2258,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15">
       <c r="A23" s="37"/>
       <c r="B23" s="38"/>
-      <c r="C23" s="61"/>
+      <c r="C23" s="61">
+        <v>9</v>
+      </c>
       <c r="D23" s="61">
         <v>2</v>
       </c>
@@ -2265,10 +2289,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15">
       <c r="A24" s="37"/>
       <c r="B24" s="38"/>
-      <c r="C24" s="61"/>
+      <c r="C24" s="61">
+        <v>9</v>
+      </c>
       <c r="D24" s="61">
         <v>2</v>
       </c>
@@ -2294,7 +2320,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15">
       <c r="A25" s="37">
         <v>2004</v>
       </c>
@@ -2329,7 +2355,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15">
       <c r="A26" s="37">
         <v>2003</v>
       </c>
@@ -2364,7 +2390,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15">
       <c r="A27" s="37">
         <v>2001</v>
       </c>
@@ -2399,7 +2425,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15">
       <c r="A28" s="37">
         <v>2006</v>
       </c>
@@ -2434,9 +2460,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15">
       <c r="A29" s="37"/>
       <c r="B29" s="38"/>
+      <c r="C29" s="72">
+        <v>13</v>
+      </c>
       <c r="D29" s="61">
         <v>3</v>
       </c>
@@ -2462,9 +2491,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15">
       <c r="A30" s="37"/>
       <c r="B30" s="38"/>
+      <c r="C30" s="72">
+        <v>13</v>
+      </c>
       <c r="D30" s="61">
         <v>3</v>
       </c>
@@ -2490,8 +2522,11 @@
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15">
       <c r="B31" s="38"/>
+      <c r="C31" s="72">
+        <v>13</v>
+      </c>
       <c r="D31" s="61">
         <v>3</v>
       </c>
@@ -2517,7 +2552,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15">
       <c r="A32" s="52">
         <v>1998</v>
       </c>
@@ -2552,7 +2587,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="52">
         <v>2000</v>
       </c>
@@ -2587,7 +2622,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="52">
         <v>2000</v>
       </c>
@@ -2622,7 +2657,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" s="53">
         <v>2000</v>
       </c>
@@ -2657,12 +2692,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" s="29">
         <v>1999</v>
       </c>
       <c r="B36" s="54" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C36" s="29">
         <v>18</v>
@@ -2692,7 +2727,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" s="53">
         <v>2005</v>
       </c>
@@ -2727,7 +2762,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" s="53">
         <v>2005</v>
       </c>
@@ -2762,7 +2797,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39" s="53">
         <v>2007</v>
       </c>
@@ -2797,7 +2832,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="A40" s="53">
         <v>2006</v>
       </c>
@@ -2832,7 +2867,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="A41" s="53">
         <v>2003</v>
       </c>
@@ -2867,7 +2902,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11">
       <c r="A42" s="53">
         <v>2006</v>
       </c>
@@ -2902,7 +2937,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43" s="53">
         <v>2001</v>
       </c>
@@ -2937,7 +2972,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="A44" s="53">
         <v>2007</v>
       </c>
@@ -2972,12 +3007,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="A45" s="53">
         <v>2008</v>
       </c>
       <c r="B45" s="55" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C45" s="52">
         <v>27</v>
@@ -3007,7 +3042,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11">
       <c r="A46" s="53">
         <v>2001</v>
       </c>
@@ -3042,7 +3077,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11">
       <c r="A47" s="53">
         <v>2008</v>
       </c>
@@ -3077,7 +3112,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11">
       <c r="A48" s="53">
         <v>2008</v>
       </c>
@@ -3112,7 +3147,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49" s="53">
         <v>2003</v>
       </c>
@@ -3147,7 +3182,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50" s="53">
         <v>2008</v>
       </c>
@@ -3182,7 +3217,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="A51" s="53">
         <v>1996</v>
       </c>
@@ -3217,7 +3252,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52" s="53">
         <v>1997</v>
       </c>
@@ -3252,7 +3287,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="A53" s="53">
         <v>2002</v>
       </c>
@@ -3287,9 +3322,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11">
       <c r="B54" s="38"/>
-      <c r="C54" s="53"/>
+      <c r="C54" s="53">
+        <v>35</v>
+      </c>
       <c r="D54" s="52">
         <v>8</v>
       </c>
@@ -3315,7 +3352,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55" s="53">
         <v>2009</v>
       </c>
@@ -3350,7 +3387,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11">
       <c r="A56" s="53">
         <v>2005</v>
       </c>
@@ -3385,7 +3422,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57" s="53">
         <v>1998</v>
       </c>
@@ -3420,7 +3457,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="A58" s="53">
         <v>1997</v>
       </c>
@@ -3455,7 +3492,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="A59" s="53">
         <v>1992</v>
       </c>
@@ -3490,7 +3527,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11">
       <c r="A60" s="53">
         <v>1991</v>
       </c>
@@ -3525,8 +3562,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11">
       <c r="B61" s="38"/>
+      <c r="C61" s="52">
+        <v>41</v>
+      </c>
       <c r="D61" s="52">
         <v>8</v>
       </c>
@@ -3552,8 +3592,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="B62" s="38"/>
+      <c r="C62" s="52">
+        <v>41</v>
+      </c>
       <c r="D62" s="52">
         <v>8</v>
       </c>
@@ -3579,8 +3622,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11">
       <c r="B63" s="38"/>
+      <c r="C63" s="52">
+        <v>41</v>
+      </c>
       <c r="D63" s="52">
         <v>8</v>
       </c>
@@ -3606,7 +3652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11">
       <c r="A64" s="52">
         <v>1990</v>
       </c>
@@ -3641,8 +3687,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11">
       <c r="B65" s="38"/>
+      <c r="C65" s="52">
+        <v>42</v>
+      </c>
       <c r="D65" s="52">
         <v>8</v>
       </c>
@@ -3668,7 +3717,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11">
       <c r="A66" s="52">
         <v>2006</v>
       </c>
@@ -3703,8 +3752,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11">
       <c r="B67" s="38"/>
+      <c r="C67" s="52">
+        <v>43</v>
+      </c>
       <c r="D67" s="52">
         <v>8</v>
       </c>
@@ -3730,7 +3782,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11">
       <c r="A68" s="52">
         <v>2003</v>
       </c>
@@ -3765,7 +3817,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11">
       <c r="A69" s="53">
         <v>2005</v>
       </c>
@@ -3800,7 +3852,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11">
       <c r="A70" s="52">
         <v>1993</v>
       </c>
@@ -3835,7 +3887,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11">
+      <c r="C71" s="52">
+        <v>46</v>
+      </c>
       <c r="D71" s="52">
         <v>8</v>
       </c>
@@ -3861,7 +3916,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11">
+      <c r="C72" s="52">
+        <v>46</v>
+      </c>
       <c r="D72" s="27">
         <v>8</v>
       </c>
@@ -3887,7 +3945,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11">
+      <c r="C73" s="52">
+        <v>46</v>
+      </c>
       <c r="D73" s="27">
         <v>8</v>
       </c>
@@ -3925,14 +3986,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.28515625" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.140625" style="13" bestFit="1" customWidth="1"/>
@@ -3943,7 +4004,7 @@
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="11" t="s">
         <v>22</v>
       </c>
@@ -3973,7 +4034,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="13">
         <v>2008</v>
       </c>
@@ -4005,7 +4066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
@@ -4032,7 +4093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="13">
         <v>2007</v>
       </c>
@@ -4062,7 +4123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
@@ -4089,7 +4150,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="13">
         <v>2004</v>
       </c>
@@ -4113,7 +4174,7 @@
       </c>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
@@ -4136,7 +4197,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
@@ -4159,7 +4220,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="13">
         <v>2003</v>
       </c>
@@ -4183,7 +4244,7 @@
       </c>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="B10" s="7" t="s">
         <v>15</v>
       </c>
@@ -4204,7 +4265,7 @@
       </c>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="13">
         <v>2002</v>
       </c>
@@ -4228,7 +4289,7 @@
       </c>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="B12" s="7" t="s">
         <v>16</v>
       </c>
@@ -4249,7 +4310,7 @@
       </c>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="13">
         <v>2001</v>
       </c>
@@ -4272,7 +4333,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="B14" s="7" t="s">
         <v>17</v>
       </c>
@@ -4292,7 +4353,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="13">
         <v>2003</v>
       </c>
@@ -4315,7 +4376,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="B16" s="7" t="s">
         <v>12</v>
       </c>
@@ -4335,7 +4396,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="13">
         <v>2008</v>
       </c>
@@ -4358,7 +4419,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="B18" s="7" t="s">
         <v>18</v>
       </c>
@@ -4378,7 +4439,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="13">
         <v>2006</v>
       </c>
@@ -4401,7 +4462,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="B20" s="7" t="s">
         <v>19</v>
       </c>
@@ -4421,7 +4482,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="13">
         <v>1999</v>
       </c>
@@ -4444,7 +4505,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="B22" s="7" t="s">
         <v>20</v>
       </c>
@@ -4464,7 +4525,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="13">
         <v>2009</v>
       </c>
@@ -4487,7 +4548,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="B24" s="7" t="s">
         <v>21</v>
       </c>
@@ -4522,20 +4583,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -4543,7 +4604,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -4551,7 +4612,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -4559,7 +4620,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -4567,7 +4628,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -4575,7 +4636,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -4583,7 +4644,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -4591,7 +4652,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -4599,7 +4660,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -4607,7 +4668,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -4615,7 +4676,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -4623,7 +4684,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -4631,7 +4692,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -4639,7 +4700,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -4647,7 +4708,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -4655,7 +4716,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -4663,7 +4724,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -4671,7 +4732,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -4679,7 +4740,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -4687,7 +4748,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -4695,7 +4756,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -4703,7 +4764,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -4711,7 +4772,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -4719,7 +4780,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -4727,7 +4788,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -4735,15 +4796,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C26" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -4751,7 +4812,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -4759,7 +4820,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>59</v>
       </c>
@@ -4767,7 +4828,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -4775,7 +4836,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -4783,7 +4844,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -4791,7 +4852,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>63</v>
       </c>
@@ -4799,7 +4860,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -4807,7 +4868,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -4815,7 +4876,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>66</v>
       </c>
@@ -4823,7 +4884,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>67</v>
       </c>
@@ -4831,7 +4892,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>68</v>
       </c>
@@ -4839,7 +4900,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>69</v>
       </c>
@@ -4847,7 +4908,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>70</v>
       </c>
@@ -4855,7 +4916,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>71</v>
       </c>
@@ -4863,7 +4924,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>72</v>
       </c>
@@ -4871,7 +4932,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>73</v>
       </c>
@@ -4879,7 +4940,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>74</v>
       </c>
@@ -4887,7 +4948,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>75</v>
       </c>
@@ -4895,124 +4956,124 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
